--- a/libro/input_files/discount_factors_2022-10-05.xlsx
+++ b/libro/input_files/discount_factors_2022-10-05.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t004672\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0AD625A1-6CB3-4113-84C3-93786EA664F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEF772BD-5179-4748-9279-34AB53C9B4D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-17700" yWindow="-16020" windowWidth="26610" windowHeight="15615" xr2:uid="{E62F9F65-41F9-4893-AC09-D035834E6650}"/>
+    <workbookView xWindow="11370" yWindow="-15930" windowWidth="26610" windowHeight="15615" xr2:uid="{E62F9F65-41F9-4893-AC09-D035834E6650}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -395,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{282C27A3-24F8-483F-999B-AA8F32C92A16}">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -413,265 +413,273 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
         <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0.99929627398767495</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>0.99816521646738599</v>
+        <v>0.99929627398767495</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>0.99661839416939502</v>
+        <v>0.99816521646738599</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>0.99506400851701005</v>
+        <v>0.99661839416939502</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>0.9933225902217</v>
+        <v>0.99506400851701005</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>0.99103495812353204</v>
+        <v>0.9933225902217</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>0.98921968290662299</v>
+        <v>0.99103495812353204</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>0.98712000673135702</v>
+        <v>0.98921968290662299</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>0.98499081797809995</v>
+        <v>0.98712000673135702</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>0.98274809174849498</v>
+        <v>0.98499081797809995</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>0.98047122374821205</v>
+        <v>0.98274809174849498</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>0.97814183507779895</v>
+        <v>0.98047122374821205</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>0.97155439984607395</v>
+        <v>0.97814183507779895</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B15" s="1">
-        <v>0.96526216367307005</v>
+        <v>0.97155439984607395</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B16" s="1">
-        <v>0.95898365674686203</v>
+        <v>0.96526216367307005</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B17" s="1">
-        <v>0.95290404830188402</v>
+        <v>0.95898365674686203</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B18" s="1">
-        <v>0.92958733351710898</v>
+        <v>0.95290404830188402</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="B19" s="1">
-        <v>0.90631929120438504</v>
+        <v>0.92958733351710898</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="B20" s="1">
-        <v>0.88255675578663795</v>
+        <v>0.90631929120438504</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="B21" s="1">
-        <v>0.85913115938460205</v>
+        <v>0.88255675578663795</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="B22" s="1">
-        <v>0.83617620726448405</v>
+        <v>0.85913115938460205</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="B23" s="1">
-        <v>0.81309075951905596</v>
+        <v>0.83617620726448405</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="B24" s="1">
-        <v>0.79013959991816995</v>
+        <v>0.81309075951905596</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="B25" s="1">
-        <v>0.76710530723356096</v>
+        <v>0.79013959991816995</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="B26" s="1">
-        <v>0.74444818672074997</v>
+        <v>0.76710530723356096</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="B27" s="1">
-        <v>0.72246515976972203</v>
+        <v>0.74444818672074997</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>180</v>
+        <v>144</v>
       </c>
       <c r="B28" s="1">
-        <v>0.66434874525363097</v>
+        <v>0.72246515976972203</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="B29" s="1">
-        <v>0.59879750008825605</v>
+        <v>0.66434874525363097</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="B30" s="1">
-        <v>0.55509769865825198</v>
+        <v>0.59879750008825605</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="B31" s="1">
-        <v>0.52076984243366897</v>
+        <v>0.55509769865825198</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>480</v>
+        <v>360</v>
       </c>
       <c r="B32" s="1">
-        <v>0.45722985881699302</v>
+        <v>0.52076984243366897</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>600</v>
+        <v>480</v>
       </c>
       <c r="B33" s="1">
-        <v>0.402635857901113</v>
+        <v>0.45722985881699302</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
+        <v>600</v>
+      </c>
+      <c r="B34" s="1">
+        <v>0.402635857901113</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
         <v>720</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B35" s="1">
         <v>0.36293112751884499</v>
       </c>
     </row>
